--- a/downloaded_files/MDPS479_Tutorial-35701.xlsx
+++ b/downloaded_files/MDPS479_Tutorial-35701.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -280,6 +280,15 @@
   </x:si>
   <x:si>
     <x:t>malak yasser saad ahmed sallam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد فاروق قنديل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mohamed Farouk Kandel</x:t>
   </x:si>
   <x:si>
     <x:t>1210095</x:t>
@@ -404,7 +413,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -704,7 +713,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -714,7 +723,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="32.140625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="48.960625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1689,7 +1698,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6666656597</x:v>
+        <x:v>45924.8699445949</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1706,6 +1715,38 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45906.6666656597</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS479_Tutorial-35701.xlsx
+++ b/downloaded_files/MDPS479_Tutorial-35701.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -280,15 +280,6 @@
   </x:si>
   <x:si>
     <x:t>malak yasser saad ahmed sallam</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4230184</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف محمد فاروق قنديل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Mohamed Farouk Kandel</x:t>
   </x:si>
   <x:si>
     <x:t>1210095</x:t>
@@ -413,7 +404,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -713,7 +704,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -723,7 +714,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="32.140625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="48.960625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1698,7 +1689,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45924.8699445949</x:v>
+        <x:v>45906.6666656597</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1715,38 +1706,6 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45906.6666656597</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS479_Tutorial-35701.xlsx
+++ b/downloaded_files/MDPS479_Tutorial-35701.xlsx
@@ -51,6 +51,15 @@
     <x:t>Ahmed Marwan Kamel Abd Alaziz</x:t>
   </x:si>
   <x:si>
+    <x:t>1220219</x:t>
+  </x:si>
+  <x:si>
+    <x:t>أندرو وليد جرجس كيرلس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Andrew Walid Girgis</x:t>
+  </x:si>
+  <x:si>
     <x:t>4220110</x:t>
   </x:si>
   <x:si>
@@ -91,15 +100,6 @@
   </x:si>
   <x:si>
     <x:t>حسين ياسر محمد ابراهيم صقر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>خالد اشرف وفا محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Khaled ashraf wafa mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210053</x:t>
@@ -714,7 +714,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="32.140625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="48.960625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -859,7 +859,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6689769676</x:v>
+        <x:v>45927.4179078704</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -891,7 +891,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6710427431</x:v>
+        <x:v>45906.6689769676</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -923,7 +923,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6794722569</x:v>
+        <x:v>45906.6710427431</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -955,7 +955,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6815950231</x:v>
+        <x:v>45906.6794722569</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -983,9 +983,11 @@
       <x:c r="C8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s"/>
+      <x:c r="D8" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6709182523</x:v>
+        <x:v>45906.6815950231</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1008,16 +1010,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
+      <x:c r="D9" s="2" t="s"/>
       <x:c r="E9" s="3">
-        <x:v>45906.6736580671</x:v>
+        <x:v>45906.6709182523</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>

--- a/downloaded_files/MDPS479_Tutorial-35701.xlsx
+++ b/downloaded_files/MDPS479_Tutorial-35701.xlsx
@@ -246,15 +246,6 @@
     <x:t>Mohamed Abdelaty Mohamed Abdelaty Atwa</x:t>
   </x:si>
   <x:si>
-    <x:t>1220144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مروان نزار محمد عباس احمد عبدالشافى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marwan Nezar Mohamed Abbas Ahmed Abdelshafy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210307</x:t>
   </x:si>
   <x:si>
@@ -262,6 +253,15 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Shady Mahmoud Mohamed Elshagie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210083</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى هانى عبد الفتاح محمود العطار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Hany Abdelfattah</x:t>
   </x:si>
   <x:si>
     <x:t>1210417</x:t>
@@ -1561,7 +1561,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6665929745</x:v>
+        <x:v>45906.6648384606</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1593,7 +1593,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6648384606</x:v>
+        <x:v>45927.9740179745</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>

--- a/downloaded_files/MDPS479_Tutorial-35701.xlsx
+++ b/downloaded_files/MDPS479_Tutorial-35701.xlsx
@@ -33,15 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>1210179</x:t>
-  </x:si>
-  <x:si>
-    <x:t>أحمد خالد عبد الهادي ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ِAhmed Khaled Abd Al-hady Ibrahim</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210180</x:t>
   </x:si>
   <x:si>
@@ -145,6 +136,15 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Tamer Hanafy Mahmoud Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الرحمن عمرو إبراهيم محمد جميل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abdelrahman amr</x:t>
   </x:si>
   <x:si>
     <x:t>1210352</x:t>
@@ -795,7 +795,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.6665515046</x:v>
+        <x:v>45906.6649607986</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -827,7 +827,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.6649607986</x:v>
+        <x:v>45927.4179078704</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -859,7 +859,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45927.4179078704</x:v>
+        <x:v>45906.6689769676</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -891,7 +891,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6689769676</x:v>
+        <x:v>45906.6710427431</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -923,7 +923,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6710427431</x:v>
+        <x:v>45906.6794722569</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -955,7 +955,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6794722569</x:v>
+        <x:v>45906.6815950231</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -983,11 +983,9 @@
       <x:c r="C8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
+      <x:c r="D8" s="2" t="s"/>
       <x:c r="E8" s="3">
-        <x:v>45906.6815950231</x:v>
+        <x:v>45906.6709182523</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1010,14 +1008,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
+      <x:c r="D9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s"/>
       <x:c r="E9" s="3">
-        <x:v>45906.6709182523</x:v>
+        <x:v>45906.6759029745</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1049,7 +1049,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6759029745</x:v>
+        <x:v>45906.6753183681</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1081,7 +1081,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6753183681</x:v>
+        <x:v>45906.6768920949</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1113,7 +1113,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6768920949</x:v>
+        <x:v>45906.6670208333</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1145,7 +1145,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6670208333</x:v>
+        <x:v>45906.6672116551</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1177,7 +1177,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6672116551</x:v>
+        <x:v>45928.9334273958</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>

--- a/downloaded_files/MDPS479_Tutorial-35701.xlsx
+++ b/downloaded_files/MDPS479_Tutorial-35701.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,6 +42,15 @@
     <x:t>Ahmed Marwan Kamel Abd Alaziz</x:t>
   </x:si>
   <x:si>
+    <x:t>1220158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>أحمد هاني محمد حلمي أحمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Hany Mohamed Helmy Ahmed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220219</x:t>
   </x:si>
   <x:si>
@@ -51,31 +60,49 @@
     <x:t>Andrew Walid Girgis</x:t>
   </x:si>
   <x:si>
-    <x:t>4220110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد الأمير سيد محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AHMED MOHAMMED ELAMIR SAYED MAHMOUD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210046</x:t>
-  </x:si>
-  <x:si>
-    <x:t>امير ميشيل فاروق مسعد بولس</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amir Michel Farouk Mosaad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>بيشوى كمال برسوم كمال ابو غالى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bishoy Kamal Barsoum Kamal</x:t>
+    <x:t>1210403</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد سامح عاطف عشيش</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Sameh Atef Eshashe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210404</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد عماد عبدالله مصطفى البحراوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Emad AbdAllah Elbahrawi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210126</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد مصطفي السيد احمد محمد ريحان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mostafa Elsayed Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210348</x:t>
+  </x:si>
+  <x:si>
+    <x:t>بيشوى بطرس انعام شحاته</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bishoy Botros Enaam Shehata</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210049</x:t>
+  </x:si>
+  <x:si>
+    <x:t>تقى محمد صلاح الدين محمد مدبولى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Toka Mohamed Salah El Dine Mohamed Madbouly</x:t>
   </x:si>
   <x:si>
     <x:t>1210349</x:t>
@@ -87,21 +114,21 @@
     <x:t>Jana Ayman Wafaey</x:t>
   </x:si>
   <x:si>
+    <x:t>1210214</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حازم محمد عبد السلام لطفي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hazem mohamed abdelsalam lotfy</x:t>
+  </x:si>
+  <x:si>
     <x:t>4220116</x:t>
   </x:si>
   <x:si>
     <x:t>حسين ياسر محمد ابراهيم صقر</x:t>
   </x:si>
   <x:si>
-    <x:t>1210053</x:t>
-  </x:si>
-  <x:si>
-    <x:t>رنا عاطف سعد عرفه موسى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rana Atef saad arafa</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210223</x:t>
   </x:si>
   <x:si>
@@ -120,49 +147,13 @@
     <x:t>Zeena Jameel Ismail Ismail Alabasy</x:t>
   </x:si>
   <x:si>
-    <x:t>4220120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عاصم على محمد ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Assem Ali Mohamed Ibrahim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210367</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الرحمن تامر حنفي محمود محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Tamer Hanafy Mahmoud Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220178</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الرحمن عمرو إبراهيم محمد جميل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abdelrahman amr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210352</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن خالد محمد محمود جادالله</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abdulrhman khalid mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4220128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن محمود سعدالدين احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdel Rahman Mahmoud</x:t>
+    <x:t>1210251</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن وائل عبدالرازق السيد موافى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman wael abdelrazek el seid</x:t>
   </x:si>
   <x:si>
     <x:t>1210063</x:t>
@@ -174,6 +165,15 @@
     <x:t>ali wael mohammed ali ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1220186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر تامر حسن على الموافى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Tamer Hassan Ali ElMowafy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210262</x:t>
   </x:si>
   <x:si>
@@ -183,6 +183,15 @@
     <x:t>Omar Khaled Khalil Mohamed Khalaf</x:t>
   </x:si>
   <x:si>
+    <x:t>1210066</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر صبحى الليثى توفيق</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Sobhy Ellethy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210067</x:t>
   </x:si>
   <x:si>
@@ -210,15 +219,6 @@
     <x:t>Fatma Abdelaziz Mohamed Abdo</x:t>
   </x:si>
   <x:si>
-    <x:t>1210110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كريم أشرف وجدى دسوقى محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kareem Ashraf wagdy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210285</x:t>
   </x:si>
   <x:si>
@@ -237,13 +237,31 @@
     <x:t>Mohamed Sabry Hassan Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>4230172</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد عبدالعاطى محمد عبدالعاطى عطوة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Abdelaty Mohamed Abdelaty Atwa</x:t>
+    <x:t>1210290</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عمرو هاني حسين سيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed amr hany hussein sayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200264</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود خالد محمد ابو العلا</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Khaled Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4210425</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريام تامر صديق حنا</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meriam Tamer Saddik Hanna</x:t>
   </x:si>
   <x:si>
     <x:t>1210307</x:t>
@@ -255,31 +273,58 @@
     <x:t>Mostafa Shady Mahmoud Mohamed Elshagie</x:t>
   </x:si>
   <x:si>
-    <x:t>1210083</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفى هانى عبد الفتاح محمود العطار</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mostafa Hany Abdelfattah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210417</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصعب محمد عبد اللاه على عبد اللاه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mosaab Mohammed Abdella Ali</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210311</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ملك ياسر سعد احمد سلام</x:t>
-  </x:si>
-  <x:si>
-    <x:t>malak yasser saad ahmed sallam</x:t>
+    <x:t>1220204</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفي هيثم فوزي مصطفي المنسي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Haytham Fawzy Mostafa Elmansy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210419</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مينا عادل ماهر وصفى ناثان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mina Adel Maher Wasfi Nathan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220318</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور احمد شمس الدين محمد سالم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour Ahmed Shamseldin Mohamed Salem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210034</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نيره محمد صلاح الدين فتح الله البيلي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Naira Mohamed Salah Eldin fathallah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>وليد اشرف ابراهيم عبدالنبى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WALEED ASHRAF IBRAHIM ABDELNABI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210338</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف سيد بدير احمد امين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef sayed bedier ahmed amin</x:t>
   </x:si>
   <x:si>
     <x:t>1210095</x:t>
@@ -404,7 +449,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -704,7 +749,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -827,7 +872,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45927.4179078704</x:v>
+        <x:v>45906.6650521991</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -859,7 +904,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6689769676</x:v>
+        <x:v>45927.4179078704</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -891,7 +936,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6710427431</x:v>
+        <x:v>45906.6650118403</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -923,7 +968,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6794722569</x:v>
+        <x:v>45906.6650357292</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -955,7 +1000,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6815950231</x:v>
+        <x:v>45906.6649310995</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -983,9 +1028,11 @@
       <x:c r="C8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s"/>
+      <x:c r="D8" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6709182523</x:v>
+        <x:v>45912.0243352199</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1008,16 +1055,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6759029745</x:v>
+        <x:v>45906.6649211458</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1040,16 +1087,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6753183681</x:v>
+        <x:v>45906.6815950231</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1072,16 +1119,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6768920949</x:v>
+        <x:v>45912.023521956</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1104,16 +1151,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
+      <x:c r="D12" s="2" t="s"/>
       <x:c r="E12" s="3">
-        <x:v>45906.6670208333</x:v>
+        <x:v>45906.6709182523</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1145,7 +1190,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6672116551</x:v>
+        <x:v>45906.6753183681</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1177,7 +1222,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45928.9334273958</x:v>
+        <x:v>45906.6768920949</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1209,7 +1254,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6644226042</x:v>
+        <x:v>45906.6650795139</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1241,7 +1286,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4160982639</x:v>
+        <x:v>45906.6661680556</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1273,7 +1318,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6661680556</x:v>
+        <x:v>45906.6647952546</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1337,7 +1382,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6662139699</x:v>
+        <x:v>45906.6645260069</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1369,7 +1414,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6718613426</x:v>
+        <x:v>45906.6662139699</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1401,7 +1446,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6693445255</x:v>
+        <x:v>45906.6718613426</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1433,7 +1478,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6658026968</x:v>
+        <x:v>45906.6693445255</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1529,7 +1574,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.7459977199</x:v>
+        <x:v>45912.0234185995</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1561,7 +1606,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6648384606</x:v>
+        <x:v>45906.6649344907</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1593,7 +1638,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.9740179745</x:v>
+        <x:v>45906.6771461458</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1625,7 +1670,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6651516551</x:v>
+        <x:v>45906.6648384606</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1657,7 +1702,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6757055208</x:v>
+        <x:v>45906.6646466435</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1689,7 +1734,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6666656597</x:v>
+        <x:v>45906.6644506944</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1707,18 +1752,181 @@
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
     </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45927.4146510417</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45906.6645776968</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45906.6775691319</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45912.0232952546</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45906.6666656597</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Embedded systems for Mechatronics Applications (MDPS479) Location : [20511]20511-45-الجيزة الرئيسي Time : Wednesday(14:16)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Embedded systems for Mechatronics Applications (MDPS479) Location : [20108]20108-60-الجيزة الرئيسي Time : Wednesday(14:16)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Embedded systems for Mechatronics Applications (MDPS479) Location : [20511]20511-45-الجيزة الرئيسي Time : Wednesday(14:16)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Embedded systems for Mechatronics Applications (MDPS479) Location : [20108]20108-60-الجيزة الرئيسي Time : Wednesday(14:16)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Embedded systems for Mechatronics Applications (MDPS479) Location : [20511]20511-45-الجيزة الرئيسي Time : Wednesday(14:16)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Embedded systems for Mechatronics Applications (MDPS479) Location : [20108]20108-60-الجيزة الرئيسي Time : Wednesday(14:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>
